--- a/data/trans_dic/P44_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P44_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en situación de desempleo debido a la COVID-19</t>
+          <t>Población que se encuentra en situación de desempleo debido a la COVID-19 (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>42,09%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>27,62%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36,32%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,86%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,05%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,46%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>36,92%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>26,6%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>30,17%</t>
+          <t>3,79%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,57%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,87%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,49%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,68; 56,59</t>
+          <t>4,06; 9,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,55; 42,5</t>
+          <t>2,59; 5,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,11; 42,4</t>
+          <t>1,47; 4,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,62; 54,05</t>
+          <t>1,68; 5,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,77; 40,95</t>
+          <t>0,66; 3,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,65; 31,6</t>
+          <t>4,03; 7,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,94; 30,82</t>
+          <t>2,41; 5,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,07; 35,31</t>
+          <t>1,61; 3,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,91; 45,28</t>
+          <t>1,75; 3,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,25; 33,27</t>
+          <t>0,74; 2,52</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,55; 32,16</t>
+          <t>4,54; 7,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,94; 39,9</t>
+          <t>2,83; 4,89</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,82; 3,51</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,09; 4,21</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 2,46</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>41,12%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>34,22%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,15%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>37,85%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,59%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>39,32%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>23,39%</t>
+          <t>6,28%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3,7%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3,39%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0,96%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,73; 52,42</t>
+          <t>5,25; 10,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,19; 48,71</t>
+          <t>3,45; 9,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,33; 42,3</t>
+          <t>1,29; 5,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,01; 37,95</t>
+          <t>1,55; 5,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,51; 46,57</t>
+          <t>0,24; 2,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,13; 41,4</t>
+          <t>5,94; 10,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,22; 38,34</t>
+          <t>4,79; 9,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,02; 32,3</t>
+          <t>3,1; 6,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32,46; 46,85</t>
+          <t>2,48; 5,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,9; 42,04</t>
+          <t>0,43; 2,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19,6; 36,15</t>
+          <t>6,28; 9,67</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,58; 31,47</t>
+          <t>4,77; 8,51</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,65; 5,21</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>2,36; 4,7</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 1,68</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>27,94%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,88%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>30,46%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,97%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,49%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,66%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,49; 43,83</t>
+          <t>1,7; 9,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,59; 49,6</t>
+          <t>1,47; 9,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,4; 54,94</t>
+          <t>0,49; 5,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,76</t>
+          <t>0,0; 2,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,2; 44,04</t>
+          <t>0,0; 2,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,59; 44,56</t>
+          <t>4,07; 12,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,8; 50,13</t>
+          <t>2,99; 11,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,09; 33,77</t>
+          <t>2,41; 8,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,32; 37,39</t>
+          <t>1,01; 6,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,1; 39,58</t>
+          <t>0,48; 4,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,73; 45,84</t>
+          <t>3,59; 9,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 31,33</t>
+          <t>3,09; 9,08</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,87; 5,97</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,7; 3,38</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,25; 2,83</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>38,51%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>31,48%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>25,94%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>27,52%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,78%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>36,17%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>29,3%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>4,95%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>3,12%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>1,23%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,47; 46,96</t>
+          <t>4,97; 8,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,94; 40,4</t>
+          <t>3,63; 6,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,85; 36,09</t>
+          <t>1,78; 3,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,67; 41,1</t>
+          <t>1,84; 4,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,7; 40,13</t>
+          <t>0,62; 2,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,95; 33,72</t>
+          <t>5,56; 8,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,18; 32,06</t>
+          <t>3,96; 6,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,3; 29,8</t>
+          <t>2,75; 4,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,41; 40,95</t>
+          <t>2,44; 4,03</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24,93; 34,93</t>
+          <t>0,84; 2,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,47; 31,07</t>
+          <t>5,64; 7,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,9; 31,24</t>
+          <t>4,06; 5,89</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 3,91</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>2,31; 3,67</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 1,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra en situación de desempleo debido a la COVID-19 (tasa de respuesta: 99,97%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>97573</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>67185</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>42639</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>51260</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>25370</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>97107</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>63923</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>46626</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>48186</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>25925</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>194680</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>131109</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>89265</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>99446</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>51295</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>66513; 151918</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>42752; 95202</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>24263; 72748</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>27579; 91279</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10828; 53839</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>72030; 129667</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>43676; 93407</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>29385; 72641</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>31821; 70830</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13281; 45593</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>155594; 264452</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>98018; 169335</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>63203; 122012</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>72431; 145837</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>29250; 84816</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>102274</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>78403</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>38814</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>40714</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>12000</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>115278</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>95217</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>62935</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>52883</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>14533</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>217552</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>173620</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>101749</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>93597</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>26533</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>72837; 146108</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>47364; 125777</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>17701; 75811</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>21437; 75789</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3349; 31377</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>83766; 152919</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>66638; 130890</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>42555; 89755</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>34234; 77771</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>6001; 30769</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>175488; 270303</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>131910; 235248</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>72799; 143240</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>65070; 129822</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>14179; 46645</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>18361</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>19225</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9183</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1794</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2117</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>29303</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>25533</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>19840</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12101</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6860</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>47664</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>44759</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>29023</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>13895</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>8977</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7186; 38426</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6206; 42195</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2090; 24601</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8525</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11716</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>16762; 50850</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12306; 48628</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9866; 35957</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4174; 26044</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1958; 19244</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>29930; 77685</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>25824; 75823</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>15533; 49671</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>5840; 28239</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>2120; 23627</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>218208</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>164814</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>90636</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>93768</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>39487</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>241687</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>184674</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>129401</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>113170</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>47318</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>459895</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>349487</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>220037</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>206938</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>86805</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>171338; 288044</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>125086; 230098</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>61428; 135945</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>63275; 143509</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>21366; 72224</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>200569; 293711</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>142899; 232218</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>99359; 169864</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>88046; 145563</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>30321; 75228</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>397823; 548094</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>286894; 415755</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>177307; 275681</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>163306; 259234</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>59795; 122693</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
